--- a/IZ_Project/src/main/java/com/example/IZ_Project/data/cbrdata.xlsx
+++ b/IZ_Project/src/main/java/com/example/IZ_Project/data/cbrdata.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\tempp\IZ_Project\IZ_Project\src\main\java\com\example\IZ_Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\Fax\cetvrta godina\drugi semestar\inzinjering znanja\PROJEKAT\IZ_Project\IZ_Project\src\main\java\com\example\IZ_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04596C9C-B362-4FF6-92A1-95E359BA5124}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A346359B-60B4-4E01-A89B-3BC1F9A0540E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="173">
   <si>
     <t>company_name</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>[update;suspicious_conversation_phone_message;credentials_theft]</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -916,4318 +919,4770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="205" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="56.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="65.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="205" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="65.28515625" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f ca="1">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(16384,20479),4),"-",DEC2HEX(RANDBETWEEN(32768,49151),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),DEC2HEX(RANDBETWEEN(0,4294967295),8))</f>
+        <v>5D72F5D2-0E77-48D1-B257-59ACB1E89D5C</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>43707</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="9">
+      <c r="F2" s="9">
         <v>16700</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
       <c r="I2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" t="s">
         <v>60</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>72</v>
       </c>
-      <c r="K2" t="s">
-        <v>94</v>
-      </c>
       <c r="L2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A66" ca="1" si="0">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(16384,20479),4),"-",DEC2HEX(RANDBETWEEN(32768,49151),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),DEC2HEX(RANDBETWEEN(0,4294967295),8))</f>
+        <v>FFEAE384-91EC-4C07-A41E-744C5533ED05</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>36596</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>100</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="9">
+      <c r="F3" s="9">
         <v>150</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>50</v>
       </c>
-      <c r="K3" t="s">
-        <v>96</v>
-      </c>
       <c r="L3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>8F6B17C3-93B7-4891-A056-15E82A829471</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>36675</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="9">
+      <c r="F4" s="9">
         <v>155</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>94</v>
-      </c>
       <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K4" t="s">
-        <v>96</v>
-      </c>
       <c r="L4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>34106CBD-AF76-494F-917F-957226F34E23</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>38371</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>103</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="9">
+      <c r="F5" s="9">
         <v>800</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
-        <v>95</v>
-      </c>
       <c r="L5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>93550B09-57EC-4BB7-B6AF-01B3A41F75FF</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>38448</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F6" s="9">
         <v>820</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
-        <v>94</v>
-      </c>
       <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
         <v>52</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
-        <v>95</v>
-      </c>
       <c r="L6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F28174BB-A943-481A-928A-269F0F662C7B</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>38504</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>106</v>
       </c>
-      <c r="E7" s="9">
+      <c r="F7" s="9">
         <v>850</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
-        <v>94</v>
-      </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
         <v>53</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>54</v>
       </c>
-      <c r="K7" t="s">
-        <v>95</v>
-      </c>
       <c r="L7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C803445F-1A11-4927-8C6B-38742EA131AD</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>42207</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>107</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="9">
+      <c r="F8" s="9">
         <v>335</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>56</v>
       </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
       <c r="L8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>24A39A1A-EB5A-48B8-BD2A-2DC094A4CCCD</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>42225</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>107</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="9">
+      <c r="F9" s="9">
         <v>332</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
       <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
         <v>55</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>56</v>
       </c>
-      <c r="K9" t="s">
-        <v>96</v>
-      </c>
       <c r="L9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>7B19C371-A1AE-47CF-8D3B-71B96700094C</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>42237</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>107</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="9">
+      <c r="F10" s="9">
         <v>340</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" t="s">
-        <v>95</v>
-      </c>
       <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
         <v>55</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>56</v>
       </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
       <c r="L10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>36313A22-DAE1-429D-8AC5-0E4FEF278A57</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>42988</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>103</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="9">
+      <c r="F11" s="9">
         <v>400</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
       <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
         <v>53</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>58</v>
       </c>
-      <c r="K11" t="s">
-        <v>95</v>
-      </c>
       <c r="L11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>60FAF94E-46C8-43F4-9D5D-14BCACDB3F8B</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>43093</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>103</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="9">
+      <c r="F12" s="9">
         <v>400</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
-        <v>94</v>
-      </c>
       <c r="I12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" t="s">
         <v>53</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>58</v>
       </c>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
       <c r="L12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1DBC60DB-4310-4CFE-A72C-320558A2E9C4</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>40850</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>103</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="9">
+      <c r="F13" s="9">
         <v>900</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
       <c r="I13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" t="s">
         <v>52</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>54</v>
       </c>
-      <c r="K13" t="s">
-        <v>95</v>
-      </c>
       <c r="L13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1029649A-B22E-448F-82D2-D231240646DC</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>40874</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>103</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>950</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>14</v>
       </c>
-      <c r="H14" t="s">
-        <v>94</v>
-      </c>
       <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
         <v>52</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>58</v>
       </c>
-      <c r="K14" t="s">
-        <v>95</v>
-      </c>
       <c r="L14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>326A4127-7141-48E5-81EC-215061BF3345</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>40879</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>103</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="9">
+      <c r="F15" s="9">
         <v>960</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>7</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
-        <v>94</v>
-      </c>
       <c r="I15" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" t="s">
         <v>52</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>57</v>
       </c>
-      <c r="K15" t="s">
-        <v>95</v>
-      </c>
       <c r="L15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A2A0A55B-4E74-4F0F-B5F5-0C5B8BEDE27F</v>
+      </c>
+      <c r="B16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>43624</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>107</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="9">
+      <c r="F16" s="9">
         <v>2000</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>7</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>14</v>
       </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
       <c r="I16" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" t="s">
         <v>55</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>56</v>
       </c>
-      <c r="K16" t="s">
-        <v>96</v>
-      </c>
       <c r="L16" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>69CAC1D9-9E21-4C3A-8E1F-0DF3B7AD466C</v>
+      </c>
+      <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>41319</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>100</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="9">
+      <c r="F17" s="9">
         <v>1500</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>7</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" t="s">
-        <v>94</v>
-      </c>
       <c r="I17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="K17" t="s">
-        <v>96</v>
-      </c>
       <c r="L17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3B328A92-9FBD-455E-A3E7-D12B3FCB697D</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>43598</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>98</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="9">
+      <c r="F18" s="9">
         <v>850</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" t="s">
-        <v>96</v>
-      </c>
       <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
         <v>60</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>72</v>
       </c>
-      <c r="K18" t="s">
-        <v>94</v>
-      </c>
       <c r="L18" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="M18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F2E3E1E0-963D-464D-AC70-267F9804A4E3</v>
+      </c>
+      <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>42996</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>98</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="9">
+      <c r="F19" s="9">
         <v>750</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" t="s">
-        <v>96</v>
-      </c>
       <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
         <v>60</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>72</v>
       </c>
-      <c r="K19" t="s">
-        <v>94</v>
-      </c>
       <c r="L19" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="M19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>80D4B741-D4AD-47F7-ACB7-3C4ACB8C2485</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>38512</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>98</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="9">
+      <c r="F20" s="9">
         <v>600</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>109</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>31</v>
       </c>
-      <c r="H20" t="s">
-        <v>96</v>
-      </c>
       <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" t="s">
         <v>60</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>72</v>
       </c>
-      <c r="K20" t="s">
-        <v>94</v>
-      </c>
       <c r="L20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="M20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C2BA8C4E-7A7F-4925-9192-128372A7292D</v>
+      </c>
+      <c r="B21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>39763</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>98</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="9">
+      <c r="F21" s="9">
         <v>800</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" t="s">
-        <v>96</v>
-      </c>
       <c r="I21" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" t="s">
         <v>60</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>72</v>
       </c>
-      <c r="K21" t="s">
-        <v>94</v>
-      </c>
       <c r="L21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="M21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>084F4DE1-8C39-48AF-AE6B-6E913047EA83</v>
+      </c>
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>39965</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>110</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="9">
+      <c r="F22" s="9">
         <v>16700</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>7</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>8</v>
       </c>
-      <c r="H22" t="s">
-        <v>96</v>
-      </c>
       <c r="I22" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" t="s">
         <v>60</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>71</v>
       </c>
-      <c r="K22" t="s">
-        <v>96</v>
-      </c>
       <c r="L22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CAA54C42-AD4D-461B-96F6-02BBB6DFA265</v>
+      </c>
+      <c r="B23" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>43531</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>110</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="9">
+      <c r="F23" s="9">
         <v>2000</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>7</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>31</v>
       </c>
-      <c r="H23" t="s">
-        <v>96</v>
-      </c>
       <c r="I23" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" t="s">
         <v>60</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>71</v>
       </c>
-      <c r="K23" t="s">
-        <v>96</v>
-      </c>
       <c r="L23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3431E826-DB2C-4D73-899A-3AEE2CE2BB65</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>41214</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>110</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="9">
+      <c r="F24" s="9">
         <v>1300</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>7</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
       <c r="I24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J24" t="s">
         <v>60</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>71</v>
       </c>
-      <c r="K24" t="s">
-        <v>96</v>
-      </c>
       <c r="L24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CFB0BF6F-6825-415D-805E-0274BB792C4D</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>43996</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>110</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="9">
+      <c r="F25" s="9">
         <v>1200</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>12</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" t="s">
-        <v>96</v>
-      </c>
       <c r="I25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" t="s">
         <v>60</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>71</v>
       </c>
-      <c r="K25" t="s">
-        <v>96</v>
-      </c>
       <c r="L25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>774CD1FF-B600-4163-AADC-EF885A000399</v>
+      </c>
+      <c r="B26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="1">
         <v>39302</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="9">
+      <c r="F26" s="9">
         <v>700</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>7</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>24</v>
       </c>
-      <c r="H26" t="s">
-        <v>96</v>
-      </c>
       <c r="I26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" t="s">
         <v>60</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>71</v>
       </c>
-      <c r="K26" t="s">
-        <v>96</v>
-      </c>
       <c r="L26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>24069891-99F2-4635-8B62-87A5B45BA5E1</v>
+      </c>
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>43811</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>112</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>113</v>
       </c>
-      <c r="E27" s="9">
+      <c r="F27" s="9">
         <v>1100</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>7</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>8</v>
       </c>
-      <c r="H27" t="s">
-        <v>95</v>
-      </c>
       <c r="I27" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" t="s">
         <v>69</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>63</v>
       </c>
-      <c r="K27" t="s">
-        <v>95</v>
-      </c>
       <c r="L27" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>65D3FB5E-37BB-448F-955B-0F3E12C4A990</v>
+      </c>
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>43603</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>112</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="9">
+      <c r="F28" s="9">
         <v>500</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>25</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>31</v>
       </c>
-      <c r="H28" t="s">
-        <v>95</v>
-      </c>
       <c r="I28" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" t="s">
         <v>69</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>63</v>
       </c>
-      <c r="K28" t="s">
-        <v>95</v>
-      </c>
       <c r="L28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B2ECC651-1FAC-4AA5-A76E-8DB1A814BC77</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>43177</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>112</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="9">
+      <c r="F29" s="9">
         <v>450</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>109</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" t="s">
-        <v>95</v>
-      </c>
       <c r="I29" t="s">
+        <v>95</v>
+      </c>
+      <c r="J29" t="s">
         <v>69</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>63</v>
       </c>
-      <c r="K29" t="s">
-        <v>95</v>
-      </c>
       <c r="L29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>75FC29C6-0B60-4582-A58C-1F32929378B6</v>
+      </c>
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>43212</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>112</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>113</v>
       </c>
-      <c r="E30" s="9">
+      <c r="F30" s="9">
         <v>400</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>109</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>24</v>
       </c>
-      <c r="H30" t="s">
-        <v>95</v>
-      </c>
       <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
         <v>69</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>63</v>
       </c>
-      <c r="K30" t="s">
-        <v>95</v>
-      </c>
       <c r="L30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ECF77382-449D-415C-9B40-8984FD6E9E55</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>42560</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>112</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="9">
+      <c r="F31" s="9">
         <v>1500</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>7</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>14</v>
       </c>
-      <c r="H31" t="s">
-        <v>95</v>
-      </c>
       <c r="I31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J31" t="s">
         <v>69</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>63</v>
       </c>
-      <c r="K31" t="s">
-        <v>95</v>
-      </c>
       <c r="L31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="M31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>F4D319DA-EFBE-4C58-8002-612D3680AEFD</v>
+      </c>
+      <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C32" s="1">
         <v>42562</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>114</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>115</v>
       </c>
-      <c r="E32" s="9">
+      <c r="F32" s="9">
         <v>900</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>109</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>14</v>
       </c>
-      <c r="H32" t="s">
-        <v>96</v>
-      </c>
       <c r="I32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" t="s">
         <v>70</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>61</v>
       </c>
-      <c r="K32" t="s">
-        <v>94</v>
-      </c>
       <c r="L32" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="M32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D79D109B-AE01-40F9-87A2-DCAAC6341ACD</v>
+      </c>
+      <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C33" s="1">
         <v>43655</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>114</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>115</v>
       </c>
-      <c r="E33" s="9">
+      <c r="F33" s="9">
         <v>400</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>7</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>14</v>
       </c>
-      <c r="H33" t="s">
-        <v>96</v>
-      </c>
       <c r="I33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" t="s">
         <v>70</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>61</v>
       </c>
-      <c r="K33" t="s">
-        <v>94</v>
-      </c>
       <c r="L33" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>72AD3444-07F0-4DC4-BC2C-297434A49082</v>
+      </c>
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C34" s="1">
         <v>43270</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="9">
+      <c r="F34" s="9">
         <v>450</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>12</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" t="s">
-        <v>96</v>
-      </c>
       <c r="I34" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" t="s">
         <v>70</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>61</v>
       </c>
-      <c r="K34" t="s">
-        <v>94</v>
-      </c>
       <c r="L34" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="M34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>108871CB-2465-4652-92FF-7B8B1693DFE4</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C35" s="1">
         <v>42574</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>114</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>115</v>
       </c>
-      <c r="E35" s="9">
+      <c r="F35" s="9">
         <v>800</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>7</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>8</v>
       </c>
-      <c r="H35" t="s">
-        <v>96</v>
-      </c>
       <c r="I35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" t="s">
         <v>70</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>61</v>
       </c>
-      <c r="K35" t="s">
-        <v>94</v>
-      </c>
       <c r="L35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="M35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>ED1AD142-1613-4215-9B8A-E55B434A0E11</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C36" s="1">
         <v>43550</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>114</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>115</v>
       </c>
-      <c r="E36" s="9">
+      <c r="F36" s="9">
         <v>200</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>7</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>31</v>
       </c>
-      <c r="H36" t="s">
-        <v>96</v>
-      </c>
       <c r="I36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" t="s">
         <v>70</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>61</v>
       </c>
-      <c r="K36" t="s">
-        <v>94</v>
-      </c>
       <c r="L36" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="M36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>BF32DED7-0476-4FD3-B223-B30CA9313AE1</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="1">
+      <c r="C37" s="1">
         <v>37854</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>116</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="9">
+      <c r="F37" s="9">
         <v>116475</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>7</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>42</v>
       </c>
-      <c r="H37" t="s">
-        <v>95</v>
-      </c>
       <c r="I37" t="s">
+        <v>95</v>
+      </c>
+      <c r="J37" t="s">
         <v>62</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>63</v>
       </c>
-      <c r="K37" t="s">
-        <v>96</v>
-      </c>
       <c r="L37" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>3FF1EECB-5990-46B3-AB7C-C04E01C751BC</v>
+      </c>
+      <c r="B38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1">
         <v>42538</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>116</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>118</v>
       </c>
-      <c r="E38" s="9">
+      <c r="F38" s="9">
         <v>166400</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>7</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>42</v>
       </c>
-      <c r="H38" t="s">
-        <v>95</v>
-      </c>
       <c r="I38" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" t="s">
         <v>62</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>63</v>
       </c>
-      <c r="K38" t="s">
-        <v>96</v>
-      </c>
       <c r="L38" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>248B81FC-8686-435E-82F1-1560C3461A01</v>
+      </c>
+      <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C39" s="1">
         <v>37703</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>116</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="9">
+      <c r="F39" s="9">
         <v>52000</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>7</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>14</v>
       </c>
-      <c r="H39" t="s">
-        <v>95</v>
-      </c>
       <c r="I39" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" t="s">
         <v>62</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>63</v>
       </c>
-      <c r="K39" t="s">
-        <v>96</v>
-      </c>
       <c r="L39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>43D963D7-6D4D-436A-80DF-A34BD1A5C610</v>
+      </c>
+      <c r="B40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C40" s="1">
         <v>42955</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>116</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="9">
+      <c r="F40" s="9">
         <v>166475</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>7</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>24</v>
       </c>
-      <c r="H40" t="s">
-        <v>95</v>
-      </c>
       <c r="I40" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" t="s">
         <v>62</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>63</v>
       </c>
-      <c r="K40" t="s">
-        <v>96</v>
-      </c>
       <c r="L40" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>47B45AA7-DB60-4A65-8430-A3F51F9DE2AB</v>
+      </c>
+      <c r="B41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="1">
         <v>42537</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>119</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="9">
+      <c r="F41" s="9">
         <v>49000</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>7</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>14</v>
       </c>
-      <c r="H41" t="s">
-        <v>94</v>
-      </c>
       <c r="I41" t="s">
+        <v>94</v>
+      </c>
+      <c r="J41" t="s">
         <v>64</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>65</v>
       </c>
-      <c r="K41" t="s">
-        <v>95</v>
-      </c>
       <c r="L41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="M41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>985CB8FC-D4C2-4150-9284-B2E0B6E08A00</v>
+      </c>
+      <c r="B42" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="1">
         <v>41383</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>119</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="9">
+      <c r="F42" s="9">
         <v>98000</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>7</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>11</v>
       </c>
-      <c r="H42" t="s">
-        <v>94</v>
-      </c>
       <c r="I42" t="s">
+        <v>94</v>
+      </c>
+      <c r="J42" t="s">
         <v>64</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>65</v>
       </c>
-      <c r="K42" t="s">
-        <v>95</v>
-      </c>
       <c r="L42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="M42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>50A32CCF-48D8-4BF8-8A5C-761DF105AA11</v>
+      </c>
+      <c r="B43" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="1">
         <v>44041</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>119</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>121</v>
       </c>
-      <c r="E43" s="9">
+      <c r="F43" s="9">
         <v>140000</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>7</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>14</v>
       </c>
-      <c r="H43" t="s">
-        <v>94</v>
-      </c>
       <c r="I43" t="s">
+        <v>94</v>
+      </c>
+      <c r="J43" t="s">
         <v>64</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>65</v>
       </c>
-      <c r="K43" t="s">
-        <v>95</v>
-      </c>
       <c r="L43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A86200A6-F1A7-4AA7-B8E2-3FD7E02A8888</v>
+      </c>
+      <c r="B44" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="1">
+      <c r="C44" s="1">
         <v>41979</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>119</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>122</v>
       </c>
-      <c r="E44" s="9">
+      <c r="F44" s="9">
         <v>125000</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>7</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>24</v>
       </c>
-      <c r="H44" t="s">
-        <v>94</v>
-      </c>
       <c r="I44" t="s">
+        <v>94</v>
+      </c>
+      <c r="J44" t="s">
         <v>64</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>65</v>
       </c>
-      <c r="K44" t="s">
-        <v>95</v>
-      </c>
       <c r="L44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>8CAB3875-C5BB-43B1-B127-19AE8FBA0914</v>
+      </c>
+      <c r="B45" t="s">
         <v>38</v>
       </c>
-      <c r="B45" s="1">
+      <c r="C45" s="1">
         <v>43294</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>123</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="9">
+      <c r="F45" s="9">
         <v>2300000</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>154</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>8</v>
       </c>
-      <c r="H45" t="s">
-        <v>95</v>
-      </c>
       <c r="I45" t="s">
+        <v>95</v>
+      </c>
+      <c r="J45" t="s">
         <v>62</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>66</v>
       </c>
-      <c r="K45" t="s">
-        <v>95</v>
-      </c>
       <c r="L45" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="M45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1BD567C5-02AC-40CD-90E0-B158DC591876</v>
+      </c>
+      <c r="B46" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="8">
+      <c r="C46" s="8">
         <v>37276</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>123</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="9">
+      <c r="F46" s="9">
         <v>1100000</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>154</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>8</v>
       </c>
-      <c r="H46" t="s">
-        <v>95</v>
-      </c>
       <c r="I46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J46" t="s">
         <v>62</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>66</v>
       </c>
-      <c r="K46" t="s">
-        <v>95</v>
-      </c>
       <c r="L46" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="M46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>DCE02220-21C2-4A2B-B995-D3739AA5C615</v>
+      </c>
+      <c r="B47" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="1">
+      <c r="C47" s="1">
         <v>38034</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>123</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="9">
+      <c r="F47" s="9">
         <v>120</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>7</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>11</v>
       </c>
-      <c r="H47" t="s">
-        <v>95</v>
-      </c>
       <c r="I47" t="s">
+        <v>95</v>
+      </c>
+      <c r="J47" t="s">
         <v>62</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>66</v>
       </c>
-      <c r="K47" t="s">
-        <v>95</v>
-      </c>
       <c r="L47" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="M47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>41C3E466-6A00-4016-8275-61F08C070C27</v>
+      </c>
+      <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="1">
+      <c r="C48" s="1">
         <v>38067</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>123</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>127</v>
       </c>
-      <c r="E48" s="9">
+      <c r="F48" s="9">
         <v>120</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>109</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>11</v>
       </c>
-      <c r="H48" t="s">
-        <v>95</v>
-      </c>
       <c r="I48" t="s">
+        <v>95</v>
+      </c>
+      <c r="J48" t="s">
         <v>62</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>66</v>
       </c>
-      <c r="K48" t="s">
-        <v>95</v>
-      </c>
       <c r="L48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="M48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>AB41A597-EDC8-4D17-90E6-26EB692F6797</v>
+      </c>
+      <c r="B49" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="1">
+      <c r="C49" s="1">
         <v>40296</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>128</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>129</v>
       </c>
-      <c r="E49" s="9">
+      <c r="F49" s="9">
         <v>240000</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>154</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>11</v>
       </c>
-      <c r="H49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" t="s">
+        <v>95</v>
+      </c>
+      <c r="J49" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>67</v>
       </c>
-      <c r="K49" t="s">
-        <v>95</v>
-      </c>
       <c r="L49" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="M49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>4303C72D-EEAE-4F20-89D4-426D62B1C049</v>
+      </c>
+      <c r="B50" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="1">
+      <c r="C50" s="1">
         <v>41154</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>128</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="9">
+      <c r="F50" s="9">
         <v>280000</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>154</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>11</v>
       </c>
-      <c r="H50" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" t="s">
+        <v>95</v>
+      </c>
+      <c r="J50" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>67</v>
       </c>
-      <c r="K50" t="s">
-        <v>95</v>
-      </c>
       <c r="L50" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="M50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B7F1E3A3-06DD-4BCF-8707-E123D44BF84E</v>
+      </c>
+      <c r="B51" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="1">
+      <c r="C51" s="1">
         <v>41251</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>128</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>131</v>
       </c>
-      <c r="E51" s="9">
+      <c r="F51" s="9">
         <v>300000</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>132</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>24</v>
       </c>
-      <c r="H51" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" t="s">
+        <v>95</v>
+      </c>
+      <c r="J51" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>67</v>
       </c>
-      <c r="K51" t="s">
-        <v>95</v>
-      </c>
       <c r="L51" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="M51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>45664473-3BF4-44A3-8130-5F378C6DF52A</v>
+      </c>
+      <c r="B52" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="1">
+      <c r="C52" s="1">
         <v>43991</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>128</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="9">
+      <c r="F52" s="9">
         <v>310000</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>132</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>24</v>
       </c>
-      <c r="H52" t="s">
-        <v>95</v>
-      </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" t="s">
+        <v>95</v>
+      </c>
+      <c r="J52" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>67</v>
       </c>
-      <c r="K52" t="s">
-        <v>95</v>
-      </c>
       <c r="L52" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="M52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>B3696BD3-C761-4F1A-B11B-6BCA739AF27C</v>
+      </c>
+      <c r="B53" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="1">
+      <c r="C53" s="1">
         <v>44205</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>128</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>134</v>
       </c>
-      <c r="E53" s="9">
+      <c r="F53" s="9">
         <v>350000</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>132</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>24</v>
       </c>
-      <c r="H53" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" t="s">
+        <v>95</v>
+      </c>
+      <c r="J53" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>67</v>
       </c>
-      <c r="K53" t="s">
-        <v>95</v>
-      </c>
       <c r="L53" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="M53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>373EA401-C982-47ED-8116-8CC3411C4593</v>
+      </c>
+      <c r="B54" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="8">
+      <c r="C54" s="8">
         <v>38557</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>135</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>155</v>
       </c>
-      <c r="E54" s="9">
+      <c r="F54" s="9">
         <v>107</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>7</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>11</v>
       </c>
-      <c r="H54" t="s">
-        <v>95</v>
-      </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" t="s">
+        <v>95</v>
+      </c>
+      <c r="J54" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>63</v>
       </c>
-      <c r="K54" t="s">
-        <v>96</v>
-      </c>
       <c r="L54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="M54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>10D09F5D-74AB-4804-A7DC-4D80DF6D3497</v>
+      </c>
+      <c r="B55" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="8">
+      <c r="C55" s="8">
         <v>38778</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>135</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>156</v>
       </c>
-      <c r="E55" s="9">
+      <c r="F55" s="9">
         <v>100</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>7</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>11</v>
       </c>
-      <c r="H55" t="s">
-        <v>95</v>
-      </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" t="s">
+        <v>95</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>63</v>
       </c>
-      <c r="K55" t="s">
-        <v>96</v>
-      </c>
       <c r="L55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+        <v>96</v>
+      </c>
+      <c r="M55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>24988D38-5590-49A6-B332-5A63459A8735</v>
+      </c>
+      <c r="B56" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="1">
+      <c r="C56" s="1">
         <v>38851</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>135</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>157</v>
       </c>
-      <c r="E56" s="9">
+      <c r="F56" s="9">
         <v>110</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>7</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>11</v>
       </c>
-      <c r="H56" t="s">
-        <v>95</v>
-      </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>63</v>
       </c>
-      <c r="K56" t="s">
-        <v>96</v>
-      </c>
       <c r="L56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+        <v>96</v>
+      </c>
+      <c r="M56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>C566E7B2-6A4F-48AC-B2A8-8E01239CD971</v>
+      </c>
+      <c r="B57" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="1">
+      <c r="C57" s="1">
         <v>39101</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>136</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="9">
+      <c r="F57" s="9">
         <v>250</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>25</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>11</v>
       </c>
-      <c r="H57" t="s">
-        <v>95</v>
-      </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" t="s">
+        <v>95</v>
+      </c>
+      <c r="J57" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>63</v>
       </c>
-      <c r="K57" t="s">
-        <v>96</v>
-      </c>
       <c r="L57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="M57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CA82A8EA-2C77-4C59-A5B5-92A056D07F21</v>
+      </c>
+      <c r="B58" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="1">
+      <c r="C58" s="1">
         <v>39166</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>136</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>158</v>
       </c>
-      <c r="E58" s="9">
+      <c r="F58" s="9">
         <v>320</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>25</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>11</v>
       </c>
-      <c r="H58" t="s">
-        <v>95</v>
-      </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" t="s">
+        <v>95</v>
+      </c>
+      <c r="J58" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>63</v>
       </c>
-      <c r="K58" t="s">
-        <v>96</v>
-      </c>
       <c r="L58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="M58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>48694808-7BAB-48D6-8408-D0F86D33CFF1</v>
+      </c>
+      <c r="B59" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="1">
+      <c r="C59" s="1">
         <v>39318</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>136</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>159</v>
       </c>
-      <c r="E59" s="9">
+      <c r="F59" s="9">
         <v>350</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>25</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>11</v>
       </c>
-      <c r="H59" t="s">
-        <v>95</v>
-      </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" t="s">
+        <v>95</v>
+      </c>
+      <c r="J59" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>63</v>
       </c>
-      <c r="K59" t="s">
-        <v>96</v>
-      </c>
       <c r="L59" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="M59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>1AA0E440-151F-482A-A4AB-7624ABB99493</v>
+      </c>
+      <c r="B60" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="1">
+      <c r="C60" s="1">
         <v>39473</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>137</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>160</v>
       </c>
-      <c r="E60" s="9">
+      <c r="F60" s="9">
         <v>110000</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>12</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>11</v>
       </c>
-      <c r="H60" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+      <c r="J60" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>63</v>
       </c>
-      <c r="K60" t="s">
-        <v>96</v>
-      </c>
       <c r="L60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="M60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>2BC14126-7CD6-4168-A407-EDD85558CB45</v>
+      </c>
+      <c r="B61" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="1">
+      <c r="C61" s="1">
         <v>39529</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>137</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>161</v>
       </c>
-      <c r="E61" s="9">
+      <c r="F61" s="9">
         <v>112000</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>12</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>14</v>
       </c>
-      <c r="H61" t="s">
-        <v>95</v>
-      </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" t="s">
+        <v>95</v>
+      </c>
+      <c r="J61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>63</v>
       </c>
-      <c r="K61" t="s">
-        <v>96</v>
-      </c>
       <c r="L61" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="M61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>CCC37008-947A-494B-902E-6A969E130AED</v>
+      </c>
+      <c r="B62" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="1">
+      <c r="C62" s="1">
         <v>39538</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>137</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="9">
+      <c r="F62" s="9">
         <v>120000</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>12</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>14</v>
       </c>
-      <c r="H62" t="s">
-        <v>95</v>
-      </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" t="s">
+        <v>95</v>
+      </c>
+      <c r="J62" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>63</v>
       </c>
-      <c r="K62" t="s">
-        <v>96</v>
-      </c>
       <c r="L62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+        <v>96</v>
+      </c>
+      <c r="M62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>121F3FB6-42A7-4A2E-B658-71CEBF217F0E</v>
+      </c>
+      <c r="B63" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="1">
+      <c r="C63" s="1">
         <v>40141</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>138</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>162</v>
       </c>
-      <c r="E63" s="9">
+      <c r="F63" s="9">
         <v>34000</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>109</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>14</v>
       </c>
-      <c r="H63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" t="s">
+        <v>95</v>
+      </c>
+      <c r="J63" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>66</v>
       </c>
-      <c r="K63" t="s">
-        <v>96</v>
-      </c>
       <c r="L63" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="M63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>D526D827-0FE3-4256-B921-0E0F249C807D</v>
+      </c>
+      <c r="B64" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="1">
+      <c r="C64" s="1">
         <v>40154</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>138</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="9">
+      <c r="F64" s="9">
         <v>50000</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>109</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>8</v>
       </c>
-      <c r="H64" t="s">
-        <v>95</v>
-      </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+      <c r="J64" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>66</v>
       </c>
-      <c r="K64" t="s">
-        <v>96</v>
-      </c>
       <c r="L64" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="M64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>918001D3-0BC6-4BF0-817C-DC5917917855</v>
+      </c>
+      <c r="B65" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="1">
+      <c r="C65" s="1">
         <v>40598</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>138</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="9">
+      <c r="F65" s="9">
         <v>70430</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>154</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>8</v>
       </c>
-      <c r="H65" t="s">
-        <v>95</v>
-      </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>66</v>
       </c>
-      <c r="K65" t="s">
-        <v>96</v>
-      </c>
       <c r="L65" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="M65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>89E2BB04-9CCF-4F1D-A0DE-C68C4B6D5B87</v>
+      </c>
+      <c r="B66" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="1">
+      <c r="C66" s="1">
         <v>40612</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>139</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>162</v>
       </c>
-      <c r="E66" s="9">
+      <c r="F66" s="9">
         <v>79200</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>154</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>8</v>
       </c>
-      <c r="H66" t="s">
-        <v>95</v>
-      </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+      <c r="J66" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>66</v>
       </c>
-      <c r="K66" t="s">
-        <v>94</v>
-      </c>
       <c r="L66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="M66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" ref="A67:A113" ca="1" si="1">CONCATENATE(DEC2HEX(RANDBETWEEN(0,4294967295),8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(16384,20479),4),"-",DEC2HEX(RANDBETWEEN(32768,49151),4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),DEC2HEX(RANDBETWEEN(0,4294967295),8))</f>
+        <v>FF3E8002-16C6-4E70-8779-A90CD88E7AD8</v>
+      </c>
+      <c r="B67" t="s">
         <v>76</v>
       </c>
-      <c r="B67" s="8">
+      <c r="C67" s="8">
         <v>42024</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>139</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>162</v>
       </c>
-      <c r="E67" s="9">
+      <c r="F67" s="9">
         <v>21000</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>154</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>8</v>
       </c>
-      <c r="H67" t="s">
-        <v>95</v>
-      </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" t="s">
+        <v>95</v>
+      </c>
+      <c r="J67" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>66</v>
       </c>
-      <c r="K67" t="s">
-        <v>94</v>
-      </c>
       <c r="L67" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="M67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>84CB298C-C158-41B6-A5CF-EBD4856DCC09</v>
+      </c>
+      <c r="B68" t="s">
         <v>76</v>
       </c>
-      <c r="B68" s="1">
+      <c r="C68" s="1">
         <v>43105</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>139</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>162</v>
       </c>
-      <c r="E68" s="9">
+      <c r="F68" s="9">
         <v>27000</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>154</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>31</v>
       </c>
-      <c r="H68" t="s">
-        <v>95</v>
-      </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" t="s">
+        <v>95</v>
+      </c>
+      <c r="J68" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>66</v>
       </c>
-      <c r="K68" t="s">
-        <v>94</v>
-      </c>
       <c r="L68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="M68" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>4829A3DD-4EC4-4A0D-91B6-38CA12154CAD</v>
+      </c>
+      <c r="B69" t="s">
         <v>77</v>
       </c>
-      <c r="B69" s="1">
+      <c r="C69" s="1">
         <v>43120</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>140</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>162</v>
       </c>
-      <c r="E69" s="9">
+      <c r="F69" s="9">
         <v>300000</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>7</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>31</v>
       </c>
-      <c r="H69" t="s">
-        <v>95</v>
-      </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+      <c r="J69" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>66</v>
       </c>
-      <c r="K69" t="s">
-        <v>94</v>
-      </c>
       <c r="L69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+      <c r="M69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>EA4F9E72-D25A-415A-A871-9A1F5EEE6E05</v>
+      </c>
+      <c r="B70" t="s">
         <v>77</v>
       </c>
-      <c r="B70" s="1">
+      <c r="C70" s="1">
         <v>43436</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>140</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>162</v>
       </c>
-      <c r="E70" s="9">
+      <c r="F70" s="9">
         <v>312000</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>7</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>31</v>
       </c>
-      <c r="H70" t="s">
-        <v>95</v>
-      </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+      <c r="J70" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>66</v>
       </c>
-      <c r="K70" t="s">
-        <v>94</v>
-      </c>
       <c r="L70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+        <v>94</v>
+      </c>
+      <c r="M70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>726CD367-4C7E-40B0-9C99-1DA1407996B2</v>
+      </c>
+      <c r="B71" t="s">
         <v>78</v>
       </c>
-      <c r="B71" s="1">
+      <c r="C71" s="1">
         <v>43819</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>140</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E71" t="s">
         <v>162</v>
       </c>
-      <c r="E71" s="9">
+      <c r="F71" s="9">
         <v>359542</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>12</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>24</v>
       </c>
-      <c r="H71" t="s">
-        <v>95</v>
-      </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J71" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>66</v>
       </c>
-      <c r="K71" t="s">
-        <v>94</v>
-      </c>
       <c r="L71" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="M71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>7AE3FAEB-ABE3-43E3-A7A0-7C3506BAFCF4</v>
+      </c>
+      <c r="B72" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="1">
+      <c r="C72" s="1">
         <v>43960</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>141</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>163</v>
       </c>
-      <c r="E72" s="9">
+      <c r="F72" s="9">
         <v>360000</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>12</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>24</v>
       </c>
-      <c r="H72" t="s">
-        <v>95</v>
-      </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>66</v>
       </c>
-      <c r="K72" t="s">
-        <v>96</v>
-      </c>
       <c r="L72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+        <v>96</v>
+      </c>
+      <c r="M72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DB5F319C-7596-4B14-A2A6-89603FAC5913</v>
+      </c>
+      <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="1">
+      <c r="C73" s="1">
         <v>44036</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>141</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>163</v>
       </c>
-      <c r="E73" s="9">
+      <c r="F73" s="9">
         <v>104731</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>7</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>24</v>
       </c>
-      <c r="H73" t="s">
-        <v>95</v>
-      </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+      <c r="J73" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>66</v>
       </c>
-      <c r="K73" t="s">
-        <v>96</v>
-      </c>
       <c r="L73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="M73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0BFA1385-30F2-47AD-A15A-75D77CB14B24</v>
+      </c>
+      <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="1">
+      <c r="C74" s="1">
         <v>43834</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>141</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E74" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="9">
+      <c r="F74" s="9">
         <v>96000</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>7</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>24</v>
       </c>
-      <c r="H74" t="s">
-        <v>95</v>
-      </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" t="s">
+        <v>95</v>
+      </c>
+      <c r="J74" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>66</v>
       </c>
-      <c r="K74" t="s">
-        <v>96</v>
-      </c>
       <c r="L74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="M74" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>3F2E163D-5827-4A4F-AACC-26646B7F6D1E</v>
+      </c>
+      <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="8">
+      <c r="C75" s="8">
         <v>43931</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>142</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="9">
+      <c r="F75" s="9">
         <v>288481</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>25</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>14</v>
       </c>
-      <c r="H75" t="s">
-        <v>95</v>
-      </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" t="s">
+        <v>95</v>
+      </c>
+      <c r="J75" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>66</v>
       </c>
-      <c r="K75" t="s">
-        <v>95</v>
-      </c>
       <c r="L75" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="M75" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>23BC7FCC-0D21-4D85-8D8A-A3605917B665</v>
+      </c>
+      <c r="B76" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="8">
+      <c r="C76" s="8">
         <v>44318</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>142</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>162</v>
       </c>
-      <c r="E76" s="9">
+      <c r="F76" s="9">
         <v>289481</v>
       </c>
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>25</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>14</v>
       </c>
-      <c r="H76" t="s">
-        <v>95</v>
-      </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" t="s">
+        <v>95</v>
+      </c>
+      <c r="J76" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>66</v>
       </c>
-      <c r="K76" t="s">
-        <v>95</v>
-      </c>
       <c r="L76" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="M76" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>65EDEA9C-870C-4ACB-B4AD-9003C73C8F26</v>
+      </c>
+      <c r="B77" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="8">
+      <c r="C77" s="8">
         <v>40385</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>142</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>162</v>
       </c>
-      <c r="E77" s="9">
+      <c r="F77" s="9">
         <v>190000</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>109</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>14</v>
       </c>
-      <c r="H77" t="s">
-        <v>95</v>
-      </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" t="s">
+        <v>95</v>
+      </c>
+      <c r="J77" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>66</v>
       </c>
-      <c r="K77" t="s">
-        <v>95</v>
-      </c>
       <c r="L77" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="M77" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>7D139B11-8A6C-4C2C-983E-7DD68BAB76CA</v>
+      </c>
+      <c r="B78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="8">
+      <c r="C78" s="8">
         <v>40557</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>143</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>162</v>
       </c>
-      <c r="E78" s="9">
+      <c r="F78" s="9">
         <v>230000</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>109</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>11</v>
       </c>
-      <c r="H78" t="s">
-        <v>96</v>
-      </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" t="s">
+        <v>96</v>
+      </c>
+      <c r="J78" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>63</v>
       </c>
-      <c r="K78" t="s">
-        <v>95</v>
-      </c>
       <c r="L78" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="M78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>57FE298C-951A-4266-A67B-22A9C7C00ACF</v>
+      </c>
+      <c r="B79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="8">
+      <c r="C79" s="8">
         <v>40929</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>143</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>162</v>
       </c>
-      <c r="E79" s="9">
+      <c r="F79" s="9">
         <v>132200</v>
       </c>
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>109</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>11</v>
       </c>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" t="s">
+        <v>96</v>
+      </c>
+      <c r="J79" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>63</v>
       </c>
-      <c r="K79" t="s">
-        <v>95</v>
-      </c>
       <c r="L79" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="M79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>59C5B3BB-6B10-479A-B149-91E0C5452CB6</v>
+      </c>
+      <c r="B80" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="8">
+      <c r="C80" s="8">
         <v>41008</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>143</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>162</v>
       </c>
-      <c r="E80" s="9">
+      <c r="F80" s="9">
         <v>132203</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>109</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>11</v>
       </c>
-      <c r="H80" t="s">
-        <v>96</v>
-      </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" t="s">
+        <v>96</v>
+      </c>
+      <c r="J80" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>63</v>
       </c>
-      <c r="K80" t="s">
-        <v>95</v>
-      </c>
       <c r="L80" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="M80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>99E0FD7E-69A5-4F68-BADD-3BFA5C6B78F9</v>
+      </c>
+      <c r="B81" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="8">
+      <c r="C81" s="8">
         <v>42262</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>144</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="9">
+      <c r="F81" s="9">
         <v>143000</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>109</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>11</v>
       </c>
-      <c r="H81" t="s">
-        <v>96</v>
-      </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" t="s">
+        <v>96</v>
+      </c>
+      <c r="J81" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>66</v>
       </c>
-      <c r="K81" t="s">
-        <v>96</v>
-      </c>
       <c r="L81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+        <v>96</v>
+      </c>
+      <c r="M81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9C02F0D9-0CB3-4EB2-A745-E4E29B56F6CA</v>
+      </c>
+      <c r="B82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="8">
+      <c r="C82" s="8">
         <v>41791</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>144</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>164</v>
       </c>
-      <c r="E82" s="9">
+      <c r="F82" s="9">
         <v>123</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>154</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>8</v>
       </c>
-      <c r="H82" t="s">
-        <v>96</v>
-      </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" t="s">
+        <v>96</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>66</v>
       </c>
-      <c r="K82" t="s">
-        <v>96</v>
-      </c>
       <c r="L82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="M82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>145784D7-9E5B-4D8F-A8AE-16CE4AEBAB66</v>
+      </c>
+      <c r="B83" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="8">
+      <c r="C83" s="8">
         <v>41772</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>144</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>164</v>
       </c>
-      <c r="E83" s="9">
+      <c r="F83" s="9">
         <v>8</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>154</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>8</v>
       </c>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" t="s">
+        <v>96</v>
+      </c>
+      <c r="J83" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>66</v>
       </c>
-      <c r="K83" t="s">
-        <v>96</v>
-      </c>
       <c r="L83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+        <v>96</v>
+      </c>
+      <c r="M83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>F057C57F-5EB2-46D9-B47E-56AE77455EBD</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="8">
+      <c r="C84" s="8">
         <v>42859</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>145</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>165</v>
       </c>
-      <c r="E84" s="9">
+      <c r="F84" s="9">
         <v>6</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>154</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>8</v>
       </c>
-      <c r="H84" t="s">
-        <v>94</v>
-      </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" t="s">
+        <v>94</v>
+      </c>
+      <c r="J84" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>66</v>
       </c>
-      <c r="K84" t="s">
-        <v>96</v>
-      </c>
       <c r="L84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+        <v>96</v>
+      </c>
+      <c r="M84" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2693A431-9F48-4D4B-AACF-CDA128660D9F</v>
+      </c>
+      <c r="B85" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="8">
+      <c r="C85" s="8">
         <v>44012</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>145</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>165</v>
       </c>
-      <c r="E85" s="9">
+      <c r="F85" s="9">
         <v>31</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>154</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>8</v>
       </c>
-      <c r="H85" t="s">
-        <v>94</v>
-      </c>
-      <c r="I85" s="7" t="s">
+      <c r="I85" t="s">
+        <v>94</v>
+      </c>
+      <c r="J85" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>66</v>
       </c>
-      <c r="K85" t="s">
-        <v>96</v>
-      </c>
       <c r="L85" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+        <v>96</v>
+      </c>
+      <c r="M85" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>CBE86BB9-3DDA-454E-B156-AC038F5CE938</v>
+      </c>
+      <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="8">
+      <c r="C86" s="8">
         <v>43568</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>145</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>165</v>
       </c>
-      <c r="E86" s="9">
+      <c r="F86" s="9">
         <v>234</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>154</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>8</v>
       </c>
-      <c r="H86" t="s">
-        <v>94</v>
-      </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" t="s">
+        <v>94</v>
+      </c>
+      <c r="J86" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>66</v>
       </c>
-      <c r="K86" t="s">
-        <v>96</v>
-      </c>
       <c r="L86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+        <v>96</v>
+      </c>
+      <c r="M86" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>9D6128EF-85CA-4618-AA13-FA820951967D</v>
+      </c>
+      <c r="B87" t="s">
         <v>10</v>
       </c>
-      <c r="B87" s="1">
+      <c r="C87" s="1">
         <v>43593</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>87</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>166</v>
       </c>
-      <c r="E87" s="9">
+      <c r="F87" s="9">
         <v>350</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>12</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>11</v>
       </c>
-      <c r="H87" t="s">
-        <v>96</v>
-      </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" t="s">
+        <v>96</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>67</v>
       </c>
-      <c r="K87" t="s">
-        <v>94</v>
-      </c>
       <c r="L87" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="M87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>A4749215-1ECE-474C-9E0F-46CE96A127D5</v>
+      </c>
+      <c r="B88" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="1">
+      <c r="C88" s="1">
         <v>44114</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>87</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>166</v>
       </c>
-      <c r="E88" s="9">
+      <c r="F88" s="9">
         <v>800</v>
       </c>
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>12</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>11</v>
       </c>
-      <c r="H88" t="s">
-        <v>96</v>
-      </c>
-      <c r="I88" s="7" t="s">
+      <c r="I88" t="s">
+        <v>96</v>
+      </c>
+      <c r="J88" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>67</v>
       </c>
-      <c r="K88" t="s">
-        <v>94</v>
-      </c>
       <c r="L88" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="M88" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>AB454C3C-E459-4131-A48A-6C6158E20D42</v>
+      </c>
+      <c r="B89" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="1">
+      <c r="C89" s="1">
         <v>44232</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>87</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>166</v>
       </c>
-      <c r="E89" s="9">
+      <c r="F89" s="9">
         <v>150000</v>
       </c>
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>7</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>8</v>
       </c>
-      <c r="H89" t="s">
-        <v>96</v>
-      </c>
-      <c r="I89" s="7" t="s">
+      <c r="I89" t="s">
+        <v>96</v>
+      </c>
+      <c r="J89" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>67</v>
       </c>
-      <c r="K89" t="s">
-        <v>94</v>
-      </c>
       <c r="L89" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="M89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>C7428FBA-BC39-47C5-8D08-5899BCD850FE</v>
+      </c>
+      <c r="B90" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="1">
+      <c r="C90" s="1">
         <v>40001</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>146</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>167</v>
       </c>
-      <c r="E90" s="9">
+      <c r="F90" s="9">
         <v>150</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>7</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>11</v>
       </c>
-      <c r="H90" t="s">
-        <v>96</v>
-      </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" t="s">
+        <v>96</v>
+      </c>
+      <c r="J90" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>61</v>
       </c>
-      <c r="K90" t="s">
-        <v>94</v>
-      </c>
       <c r="L90" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="M90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>A4FE7A74-7451-474A-ADC0-06352B8A0257</v>
+      </c>
+      <c r="B91" t="s">
         <v>41</v>
       </c>
-      <c r="B91" s="1">
+      <c r="C91" s="1">
         <v>41620</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>146</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>167</v>
       </c>
-      <c r="E91" s="9">
+      <c r="F91" s="9">
         <v>200000</v>
       </c>
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>132</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>8</v>
       </c>
-      <c r="H91" t="s">
-        <v>96</v>
-      </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" t="s">
+        <v>96</v>
+      </c>
+      <c r="J91" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>61</v>
       </c>
-      <c r="K91" t="s">
-        <v>94</v>
-      </c>
       <c r="L91" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="M91" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>43A44DB1-4E68-4246-B94C-530CDA72D4E8</v>
+      </c>
+      <c r="B92" t="s">
         <v>83</v>
       </c>
-      <c r="B92" s="1">
+      <c r="C92" s="1">
         <v>43592</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>146</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>167</v>
       </c>
-      <c r="E92" s="9">
+      <c r="F92" s="9">
         <v>90</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>7</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>14</v>
       </c>
-      <c r="H92" t="s">
-        <v>96</v>
-      </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" t="s">
+        <v>96</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>61</v>
       </c>
-      <c r="K92" t="s">
-        <v>94</v>
-      </c>
       <c r="L92" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="M92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>CB893C8D-697F-453A-A2CD-9AC9AA469F6F</v>
+      </c>
+      <c r="B93" t="s">
         <v>76</v>
       </c>
-      <c r="B93" s="1">
+      <c r="C93" s="1">
         <v>43163</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>147</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="9">
+      <c r="F93" s="9">
         <v>160000</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
         <v>154</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>31</v>
       </c>
-      <c r="H93" t="s">
-        <v>95</v>
-      </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" t="s">
+        <v>95</v>
+      </c>
+      <c r="J93" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>63</v>
       </c>
-      <c r="K93" t="s">
-        <v>95</v>
-      </c>
       <c r="L93" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="M93" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>45950AE3-05E0-4130-9363-7EF9EAF19281</v>
+      </c>
+      <c r="B94" t="s">
         <v>76</v>
       </c>
-      <c r="B94" s="1">
+      <c r="C94" s="1">
         <v>38635</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>147</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>113</v>
       </c>
-      <c r="E94" s="9">
+      <c r="F94" s="9">
         <v>100000</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>154</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>8</v>
       </c>
-      <c r="H94" t="s">
-        <v>95</v>
-      </c>
-      <c r="I94" s="7" t="s">
+      <c r="I94" t="s">
+        <v>95</v>
+      </c>
+      <c r="J94" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>63</v>
       </c>
-      <c r="K94" t="s">
-        <v>95</v>
-      </c>
       <c r="L94" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="M94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>558902B5-C7B5-44FC-BD7A-EA46B25D6B21</v>
+      </c>
+      <c r="B95" t="s">
         <v>39</v>
       </c>
-      <c r="B95" s="1">
+      <c r="C95" s="1">
         <v>41132</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>147</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E95" t="s">
         <v>113</v>
       </c>
-      <c r="E95" s="9">
+      <c r="F95" s="9">
         <v>200</v>
       </c>
-      <c r="F95" t="s">
+      <c r="G95" t="s">
         <v>7</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>14</v>
       </c>
-      <c r="H95" t="s">
-        <v>95</v>
-      </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" t="s">
+        <v>95</v>
+      </c>
+      <c r="J95" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>63</v>
       </c>
-      <c r="K95" t="s">
-        <v>95</v>
-      </c>
       <c r="L95" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="M95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>0F4AC9DE-A293-4F8F-B83E-8D3014B1641E</v>
+      </c>
+      <c r="B96" t="s">
         <v>86</v>
       </c>
-      <c r="B96" s="1">
+      <c r="C96" s="1">
         <v>43625</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>148</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>113</v>
       </c>
-      <c r="E96" s="9">
+      <c r="F96" s="9">
         <v>240000</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>154</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>14</v>
       </c>
-      <c r="H96" t="s">
-        <v>95</v>
-      </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" t="s">
+        <v>95</v>
+      </c>
+      <c r="J96" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>63</v>
       </c>
-      <c r="K96" t="s">
-        <v>95</v>
-      </c>
       <c r="L96" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="M96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>AD4D84AA-CD8D-4E08-9831-76AF80C36A22</v>
+      </c>
+      <c r="B97" t="s">
         <v>78</v>
       </c>
-      <c r="B97" s="1">
+      <c r="C97" s="1">
         <v>44146</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>148</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>113</v>
       </c>
-      <c r="E97" s="9">
+      <c r="F97" s="9">
         <v>300000</v>
       </c>
-      <c r="F97" t="s">
+      <c r="G97" t="s">
         <v>12</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>24</v>
       </c>
-      <c r="H97" t="s">
-        <v>95</v>
-      </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" t="s">
+        <v>95</v>
+      </c>
+      <c r="J97" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>63</v>
       </c>
-      <c r="K97" t="s">
-        <v>95</v>
-      </c>
       <c r="L97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="M97" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>53D379F8-A23E-4F23-BDBD-036543AE6567</v>
+      </c>
+      <c r="B98" t="s">
         <v>36</v>
       </c>
-      <c r="B98" s="1">
+      <c r="C98" s="1">
         <v>39578</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>148</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="9">
+      <c r="F98" s="9">
         <v>400000</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>7</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>8</v>
       </c>
-      <c r="H98" t="s">
-        <v>95</v>
-      </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" t="s">
+        <v>95</v>
+      </c>
+      <c r="J98" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>63</v>
       </c>
-      <c r="K98" t="s">
-        <v>95</v>
-      </c>
       <c r="L98" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+        <v>95</v>
+      </c>
+      <c r="M98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>64298E5C-1965-4905-92AD-999E0D1F45D4</v>
+      </c>
+      <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="1">
+      <c r="C99" s="1">
         <v>43120</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>149</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>113</v>
       </c>
-      <c r="E99" s="9">
+      <c r="F99" s="9">
         <v>100</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>7</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>11</v>
       </c>
-      <c r="H99" t="s">
-        <v>95</v>
-      </c>
-      <c r="I99" s="7" t="s">
+      <c r="I99" t="s">
+        <v>95</v>
+      </c>
+      <c r="J99" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>63</v>
       </c>
-      <c r="K99" t="s">
-        <v>95</v>
-      </c>
       <c r="L99" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+        <v>95</v>
+      </c>
+      <c r="M99" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>A72FF792-4D7B-45DF-B548-870A8E6A69C8</v>
+      </c>
+      <c r="B100" t="s">
         <v>39</v>
       </c>
-      <c r="B100" s="1">
+      <c r="C100" s="1">
         <v>40612</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>149</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>113</v>
       </c>
-      <c r="E100" s="9">
+      <c r="F100" s="9">
         <v>350000</v>
       </c>
-      <c r="F100" t="s">
+      <c r="G100" t="s">
         <v>7</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>14</v>
       </c>
-      <c r="H100" t="s">
-        <v>95</v>
-      </c>
-      <c r="I100" s="7" t="s">
+      <c r="I100" t="s">
+        <v>95</v>
+      </c>
+      <c r="J100" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>63</v>
       </c>
-      <c r="K100" t="s">
-        <v>95</v>
-      </c>
       <c r="L100" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+        <v>95</v>
+      </c>
+      <c r="M100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DF20A2D5-4AB2-4CA4-BA94-D2DD1617A6A0</v>
+      </c>
+      <c r="B101" t="s">
         <v>78</v>
       </c>
-      <c r="B101" s="1">
+      <c r="C101" s="1">
         <v>43568</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>149</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>113</v>
       </c>
-      <c r="E101" s="9">
+      <c r="F101" s="9">
         <v>190000</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>154</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>24</v>
       </c>
-      <c r="H101" t="s">
-        <v>95</v>
-      </c>
-      <c r="I101" s="7" t="s">
+      <c r="I101" t="s">
+        <v>95</v>
+      </c>
+      <c r="J101" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>63</v>
       </c>
-      <c r="K101" t="s">
-        <v>95</v>
-      </c>
       <c r="L101" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+      <c r="M101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>90839CB0-8B51-4499-B695-F1C9C010575B</v>
+      </c>
+      <c r="B102" t="s">
         <v>6</v>
       </c>
-      <c r="B102" s="1">
+      <c r="C102" s="1">
         <v>43444</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>150</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>168</v>
       </c>
-      <c r="E102" s="9">
+      <c r="F102" s="9">
         <v>2000</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>7</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>8</v>
       </c>
-      <c r="H102" t="s">
-        <v>94</v>
-      </c>
-      <c r="I102" s="7" t="s">
+      <c r="I102" t="s">
+        <v>94</v>
+      </c>
+      <c r="J102" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>61</v>
       </c>
-      <c r="K102" t="s">
-        <v>96</v>
-      </c>
       <c r="L102" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="M102" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>691D38D4-4C6D-4BB7-88D6-805A7F056B81</v>
+      </c>
+      <c r="B103" t="s">
         <v>73</v>
       </c>
-      <c r="B103" s="1">
+      <c r="C103" s="1">
         <v>44251</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>150</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>168</v>
       </c>
-      <c r="E103" s="9">
+      <c r="F103" s="9">
         <v>15000</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>7</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>14</v>
       </c>
-      <c r="H103" t="s">
-        <v>94</v>
-      </c>
       <c r="I103" t="s">
+        <v>94</v>
+      </c>
+      <c r="J103" t="s">
         <v>89</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>61</v>
       </c>
-      <c r="K103" t="s">
-        <v>96</v>
-      </c>
       <c r="L103" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="M103" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>D6588F5E-7492-4D54-921A-2C54E2615776</v>
+      </c>
+      <c r="B104" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="1">
+      <c r="C104" s="1">
         <v>44092</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>150</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>168</v>
       </c>
-      <c r="E104" s="9">
+      <c r="F104" s="9">
         <v>220</v>
       </c>
-      <c r="F104" t="s">
+      <c r="G104" t="s">
         <v>12</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>11</v>
       </c>
-      <c r="H104" t="s">
-        <v>94</v>
-      </c>
       <c r="I104" t="s">
+        <v>94</v>
+      </c>
+      <c r="J104" t="s">
         <v>89</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>61</v>
       </c>
-      <c r="K104" t="s">
-        <v>96</v>
-      </c>
       <c r="L104" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="M104" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>1A7EEE0D-A255-4B25-9856-C9891258E6B0</v>
+      </c>
+      <c r="B105" t="s">
         <v>13</v>
       </c>
-      <c r="B105" s="1">
+      <c r="C105" s="1">
         <v>43824</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>151</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>169</v>
       </c>
-      <c r="E105" s="9">
+      <c r="F105" s="9">
         <v>1500</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>7</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>14</v>
       </c>
-      <c r="H105" t="s">
-        <v>94</v>
-      </c>
-      <c r="I105" s="7" t="s">
+      <c r="I105" t="s">
+        <v>94</v>
+      </c>
+      <c r="J105" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>67</v>
       </c>
-      <c r="K105" t="s">
-        <v>96</v>
-      </c>
       <c r="L105" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="M105" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>AD530F47-0A7E-45EA-AF7B-F57CCDB88F28</v>
+      </c>
+      <c r="B106" t="s">
         <v>16</v>
       </c>
-      <c r="B106" s="1">
+      <c r="C106" s="1">
         <v>44321</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>151</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>169</v>
       </c>
-      <c r="E106" s="9">
+      <c r="F106" s="9">
         <v>250</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>12</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>11</v>
       </c>
-      <c r="H106" t="s">
-        <v>94</v>
-      </c>
       <c r="I106" t="s">
+        <v>94</v>
+      </c>
+      <c r="J106" t="s">
         <v>91</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>67</v>
       </c>
-      <c r="K106" t="s">
-        <v>96</v>
-      </c>
       <c r="L106" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="M106" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>DCE94F20-D37C-4192-B193-79A1CE4DCA70</v>
+      </c>
+      <c r="B107" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="1">
+      <c r="C107" s="1">
         <v>43936</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>151</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>169</v>
       </c>
-      <c r="E107" s="9">
+      <c r="F107" s="9">
         <v>175</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>12</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>11</v>
       </c>
-      <c r="H107" t="s">
-        <v>94</v>
-      </c>
       <c r="I107" t="s">
+        <v>94</v>
+      </c>
+      <c r="J107" t="s">
         <v>91</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>67</v>
       </c>
-      <c r="K107" t="s">
-        <v>96</v>
-      </c>
       <c r="L107" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="M107" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>A17CB1CE-3E1C-4BDA-8450-7CE973A1A797</v>
+      </c>
+      <c r="B108" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="1">
+      <c r="C108" s="1">
         <v>44147</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>90</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>170</v>
       </c>
-      <c r="E108" s="9">
+      <c r="F108" s="9">
         <v>100</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>12</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>11</v>
       </c>
-      <c r="H108" t="s">
-        <v>94</v>
-      </c>
       <c r="I108" t="s">
+        <v>94</v>
+      </c>
+      <c r="J108" t="s">
         <v>92</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>63</v>
       </c>
-      <c r="K108" t="s">
-        <v>95</v>
-      </c>
       <c r="L108" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="M108" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>977284E9-0542-4178-8B87-6D8B47DCCF24</v>
+      </c>
+      <c r="B109" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="1">
+      <c r="C109" s="1">
         <v>44056</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>90</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>170</v>
       </c>
-      <c r="E109" s="9">
+      <c r="F109" s="9">
         <v>100</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>12</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>11</v>
       </c>
-      <c r="H109" t="s">
-        <v>94</v>
-      </c>
       <c r="I109" t="s">
+        <v>94</v>
+      </c>
+      <c r="J109" t="s">
         <v>92</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>63</v>
       </c>
-      <c r="K109" t="s">
-        <v>95</v>
-      </c>
       <c r="L109" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="M109" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>8654EF24-82C4-4F46-AC74-58D6A055AF91</v>
+      </c>
+      <c r="B110" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="1">
+      <c r="C110" s="1">
         <v>43308</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>90</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>170</v>
       </c>
-      <c r="E110" s="9">
+      <c r="F110" s="9">
         <v>1500</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>7</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>14</v>
       </c>
-      <c r="H110" t="s">
-        <v>94</v>
-      </c>
       <c r="I110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J110" t="s">
         <v>92</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>63</v>
       </c>
-      <c r="K110" t="s">
-        <v>95</v>
-      </c>
       <c r="L110" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="M110" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>F67171B3-1AF2-4A18-9B3D-BD3B39FBA5AB</v>
+      </c>
+      <c r="B111" t="s">
         <v>93</v>
       </c>
-      <c r="B111" s="1">
+      <c r="C111" s="1">
         <v>43678</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>152</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>171</v>
       </c>
-      <c r="E111" s="9">
+      <c r="F111" s="9">
         <v>4200</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>7</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>8</v>
       </c>
-      <c r="H111" t="s">
-        <v>96</v>
-      </c>
       <c r="I111" t="s">
+        <v>96</v>
+      </c>
+      <c r="J111" t="s">
         <v>153</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>58</v>
       </c>
-      <c r="K111" t="s">
-        <v>94</v>
-      </c>
       <c r="L111" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="M111" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>A20C35E8-0CF3-4089-A1A8-C97AB3688914</v>
+      </c>
+      <c r="B112" t="s">
         <v>13</v>
       </c>
-      <c r="B112" s="1">
+      <c r="C112" s="1">
         <v>43168</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>152</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
         <v>171</v>
       </c>
-      <c r="E112" s="9">
+      <c r="F112" s="9">
         <v>1500</v>
       </c>
-      <c r="F112" t="s">
+      <c r="G112" t="s">
         <v>7</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>14</v>
       </c>
-      <c r="H112" t="s">
-        <v>96</v>
-      </c>
       <c r="I112" t="s">
+        <v>96</v>
+      </c>
+      <c r="J112" t="s">
         <v>153</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>58</v>
       </c>
-      <c r="K112" t="s">
-        <v>94</v>
-      </c>
       <c r="L112" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="M112" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>2EDEE9C3-B440-44BB-97E8-6B3ABB4C8D16</v>
+      </c>
+      <c r="B113" t="s">
         <v>93</v>
       </c>
-      <c r="B113" s="1">
+      <c r="C113" s="1">
         <v>44223</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>152</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E113" t="s">
         <v>171</v>
       </c>
-      <c r="E113" s="9">
+      <c r="F113" s="9">
         <v>4200</v>
       </c>
-      <c r="F113" t="s">
+      <c r="G113" t="s">
         <v>7</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>8</v>
       </c>
-      <c r="H113" t="s">
-        <v>96</v>
-      </c>
       <c r="I113" t="s">
+        <v>96</v>
+      </c>
+      <c r="J113" t="s">
         <v>153</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>58</v>
       </c>
-      <c r="K113" t="s">
-        <v>94</v>
-      </c>
       <c r="L113" t="s">
+        <v>94</v>
+      </c>
+      <c r="M113" t="s">
         <v>94</v>
       </c>
     </row>
